--- a/data/trans_camb/LAWTONB_2R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.365149495285012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24.55679463627044</v>
+        <v>24.55679463627045</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>36.29426193971616</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.59775785823927</v>
+        <v>-14.33854211782556</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-22.73384510460408</v>
+        <v>-20.23314679898768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.736871382845335</v>
+        <v>4.806398614178143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.67414835997118</v>
+        <v>11.85356671325755</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.496730761508005</v>
+        <v>4.659730832962507</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.522837592930662</v>
+        <v>8.476137461530959</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.327258709238427</v>
+        <v>6.702234742770864</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6217985393234453</v>
+        <v>-1.592235850033782</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.16356276304482</v>
+        <v>12.40663308560159</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.00201690563172</v>
+        <v>26.16231626062153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.08216402740231</v>
+        <v>16.93017710218007</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40.60883929941587</v>
+        <v>39.23368881250463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56.57421576463718</v>
+        <v>53.94954746083594</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>45.82623425966557</v>
+        <v>45.94457611629505</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>41.50887341458043</v>
+        <v>41.91765237027585</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>35.63743962365199</v>
+        <v>36.38211628714468</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>27.95483029335901</v>
+        <v>27.44744362034673</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>36.63846323461512</v>
+        <v>36.60800154249081</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.05572212360433443</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.00234937695438</v>
+        <v>1.002349376954381</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.390221359234822</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3862209601713179</v>
+        <v>-0.4036332510555292</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6323350791300097</v>
+        <v>-0.6202352063941188</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1489190195016925</v>
+        <v>0.1200328463339247</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3849592765880969</v>
+        <v>0.3202136752820952</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08829627876813587</v>
+        <v>0.1164892292609719</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1618517243964837</v>
+        <v>0.1913354025372052</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1366156079314229</v>
+        <v>0.2077737906893213</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0325520258719584</v>
+        <v>-0.06087359093402693</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.30043336739385</v>
+        <v>0.3468705842191841</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.695426234747109</v>
+        <v>1.928448844306624</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.162277094447731</v>
+        <v>1.240606702896346</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.161467481671194</v>
+        <v>3.024043338835918</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.987079263869577</v>
+        <v>3.883294657261993</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.310631013455819</v>
+        <v>3.233403074457168</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.049835050560993</v>
+        <v>2.813688667505987</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.911068740596031</v>
+        <v>1.963322515724142</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.622732780461369</v>
+        <v>1.476391771953121</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.161057496641084</v>
+        <v>2.239412015083715</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-8.846395510989739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.535000705979733</v>
+        <v>-4.535000705979736</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>19.38918949210336</v>
@@ -869,7 +869,7 @@
         <v>10.67672723334486</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>22.01767496452874</v>
+        <v>22.01767496452873</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>13.25965614740864</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.11596972187459</v>
+        <v>-10.07502611912588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-23.1264828300412</v>
+        <v>-22.42772416137298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.07167350961457</v>
+        <v>-17.86726045470367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.020562437299895</v>
+        <v>6.041166821381458</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.878951276287255</v>
+        <v>-2.895451550910809</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.93405177643504</v>
+        <v>10.27387193151582</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.503765401432428</v>
+        <v>2.85210328716322</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.852865385833949</v>
+        <v>-7.949969454935718</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.79643507548452</v>
+        <v>3.603368677759286</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.60017852129056</v>
+        <v>22.32338580628238</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.135282487603392</v>
+        <v>4.631980423487658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.516191122851751</v>
+        <v>7.561612166031714</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32.24029617109525</v>
+        <v>31.68944107989887</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>22.52582934326053</v>
+        <v>23.52068021403528</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>32.98998673501015</v>
+        <v>32.62472289581244</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>23.70434897101027</v>
+        <v>24.07157368654106</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.22975805485852</v>
+        <v>11.58801422135314</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.07624748301552</v>
+        <v>20.02466287043832</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.362199308027831</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1856772191081713</v>
+        <v>-0.1856772191081714</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.8356625243665983</v>
@@ -974,7 +974,7 @@
         <v>0.4601605877040036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9489486834421237</v>
+        <v>0.9489486834421231</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5595450923461748</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3782595533319201</v>
+        <v>-0.3314805984742442</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6925975966895948</v>
+        <v>-0.6864147443653631</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.564727881671109</v>
+        <v>-0.543999629020616</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1946948932188131</v>
+        <v>0.1790657966820639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1459801993875951</v>
+        <v>-0.1009578261079026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3484609764677287</v>
+        <v>0.3006677994147778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08005880105170943</v>
+        <v>0.09882215383534104</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2496667441239611</v>
+        <v>-0.2789041592507582</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.0916327190434201</v>
+        <v>0.1175744045096374</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.225709969000935</v>
+        <v>1.412236681094195</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2241057058044018</v>
+        <v>0.3143877694689198</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4432048411333211</v>
+        <v>0.4668232746408236</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.016146617457814</v>
+        <v>1.88932451658981</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.323220317124908</v>
+        <v>1.409485108027569</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.077377985359474</v>
+        <v>2.008522830573244</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.267199840963596</v>
+        <v>1.384933591757938</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.559474524405313</v>
+        <v>0.6384135074412733</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.134833431177404</v>
+        <v>1.083982530957351</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.735351725886923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16.05549998972486</v>
+        <v>16.05549998972485</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-9.669199800434464</v>
@@ -1083,7 +1083,7 @@
         <v>-21.10962107023584</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.90906872277667</v>
+        <v>9.909068722776659</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.201709864970299</v>
@@ -1092,7 +1092,7 @@
         <v>-11.97973909645201</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>10.94324678178054</v>
+        <v>10.94324678178053</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.77447077742604</v>
+        <v>-10.77828981969523</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.81711366463394</v>
+        <v>-12.66262702123861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8090303628285646</v>
+        <v>0.1510489794167946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-25.35623306146038</v>
+        <v>-25.14506628812808</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-35.72994700897824</v>
+        <v>-35.44845606511037</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.340053189381318</v>
+        <v>-4.442786787653699</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-16.53428753913299</v>
+        <v>-15.21952946494838</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-22.76419916110984</v>
+        <v>-22.52190969942349</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.561040646037275</v>
+        <v>0.001937828907206308</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.21667216997716</v>
+        <v>23.04860686823536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.83744300748527</v>
+        <v>15.45039976630688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27.87668217995958</v>
+        <v>26.93383439175345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.615933086928618</v>
+        <v>5.930944030142411</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-5.370502943720213</v>
+        <v>-6.432954070295416</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.32415430589788</v>
+        <v>22.96264528064899</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.202957608017389</v>
+        <v>7.370857883871025</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.294322576412861</v>
+        <v>-1.5383997499089</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.71137929318174</v>
+        <v>20.98946711887961</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1337292299482691</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.784940974771413</v>
+        <v>0.7849409747714128</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2259287333591855</v>
@@ -1188,7 +1188,7 @@
         <v>-0.493243499826786</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2315334662135601</v>
+        <v>0.2315334662135598</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1223811075157643</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3489278854298194</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3187384907601403</v>
+        <v>0.3187384907601401</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.428876240286266</v>
+        <v>-0.3725129082887591</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.400061616327212</v>
+        <v>-0.4218125082924554</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.0165104625832449</v>
+        <v>0.004041051223298005</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5191859341632542</v>
+        <v>-0.5157628428751933</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7276782882324176</v>
+        <v>-0.7245520601004986</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04433370781523122</v>
+        <v>-0.08268340225526888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3970577243977734</v>
+        <v>-0.3806457324610606</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5702276577568479</v>
+        <v>-0.5908671063274167</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.00812069751186772</v>
+        <v>-0.001679655530817057</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.753562394268582</v>
+        <v>1.85144880220761</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.261113021364863</v>
+        <v>1.21842225040085</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.258751223930845</v>
+        <v>2.071334339102474</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1233291521275142</v>
+        <v>0.1799419440789987</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1389577279495839</v>
+        <v>-0.1649038360048533</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6765865910298432</v>
+        <v>0.6786985289187768</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2172162040818322</v>
+        <v>0.2628493733128484</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.04427740951103172</v>
+        <v>-0.05726652815936514</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7660798599499844</v>
+        <v>0.7742208605872108</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.57405720131986</v>
+        <v>-10.86898773227548</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-20.36292801003372</v>
+        <v>-18.53266114271145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-20.0525223613808</v>
+        <v>-18.78110327711845</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-12.40257922554297</v>
+        <v>-11.76374246472138</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-27.25446403513693</v>
+        <v>-27.83502528194948</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-21.95708673778812</v>
+        <v>-21.83551317834256</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.556169279815276</v>
+        <v>-8.324782144160007</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-18.6408011125669</v>
+        <v>-20.04061029355769</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.04174320204834</v>
+        <v>-17.57593770870261</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.14505882822629</v>
+        <v>22.53016236102</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.19807871411653</v>
+        <v>13.35589635392126</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.516765057339073</v>
+        <v>8.005399825350983</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.19655767346667</v>
+        <v>18.40463974849786</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.866598736826423</v>
+        <v>3.408869318356086</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.955546017192541</v>
+        <v>2.657279776431058</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.51303528165603</v>
+        <v>15.69888092749301</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.066969310595349</v>
+        <v>2.242396393101646</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.524565260967013</v>
+        <v>2.827434976295863</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3084823714631318</v>
+        <v>-0.3042366189909698</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5553757932760235</v>
+        <v>-0.5273730582301089</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5479559998433701</v>
+        <v>-0.5300622058701264</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2461601239784721</v>
+        <v>-0.2384106853467655</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5413363050617575</v>
+        <v>-0.5444202666609582</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4028862578033124</v>
+        <v>-0.4214260114875537</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1696709212435541</v>
+        <v>-0.1876206757962615</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4452647497432128</v>
+        <v>-0.4770560092720492</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3951610856556503</v>
+        <v>-0.3981950930777959</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.272503862976231</v>
+        <v>1.133999163872931</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6387612618360348</v>
+        <v>0.7228572820439428</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4957520018577334</v>
+        <v>0.4803985821762965</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5378670439136973</v>
+        <v>0.5052921339452661</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07967936705359854</v>
+        <v>0.09643184567609414</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.120575097966922</v>
+        <v>0.07625425626736522</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5187920043243525</v>
+        <v>0.5044005020078338</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09704985632522771</v>
+        <v>0.07756687818008344</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.05003600643507095</v>
+        <v>0.09048376816129608</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-17.71897075337934</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.169967690320409</v>
+        <v>-4.169967690320425</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.80438175572663</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-23.06899913909592</v>
+        <v>-23.30304817840567</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-36.79695545067224</v>
+        <v>-36.30482074126453</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-21.69883561118133</v>
+        <v>-24.76692636296152</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.932340833448423</v>
+        <v>-6.340976238554044</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.46549111874704</v>
+        <v>-10.6177306256448</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-26.02530901031295</v>
+        <v>-23.91402294312248</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.415751886462557</v>
+        <v>-8.220579352184302</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-18.19367483453144</v>
+        <v>-16.97517061118711</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-20.61570715036387</v>
+        <v>-19.05222684085072</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>21.2968229839443</v>
+        <v>23.42426026187107</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1958253954490216</v>
+        <v>-0.422139804432395</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.34230449462056</v>
+        <v>13.37132043782255</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33.47313019723928</v>
+        <v>35.73486752445821</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>31.71630142539084</v>
+        <v>30.20438555031713</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.890092272422433</v>
+        <v>9.099367805927651</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>21.75496014099785</v>
+        <v>23.09853924630147</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.44830272042661</v>
+        <v>12.07025444739129</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.288169310033132</v>
+        <v>6.223097089348945</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.6018983773125344</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1416502584254712</v>
+        <v>-0.1416502584254718</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3381594468910753</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5918142192516294</v>
+        <v>-0.6161944135977337</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.878091908884665</v>
+        <v>-0.8619428093800913</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5290575716261439</v>
+        <v>-0.5742312472779048</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1718333073137325</v>
+        <v>-0.1549313851207064</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2242592353624915</v>
+        <v>-0.2363641973460189</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5155725076475335</v>
+        <v>-0.4867088038453859</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2332798034927259</v>
+        <v>-0.2060679564932221</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4108748127409933</v>
+        <v>-0.4102595175373271</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4465442303046749</v>
+        <v>-0.4435708036139083</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.187070051693272</v>
+        <v>1.36485529110932</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.07591558579815785</v>
+        <v>0.1061139892460395</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8808723397832391</v>
+        <v>0.808935425077193</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.33414469629983</v>
+        <v>1.312242685248234</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.202292587376923</v>
+        <v>1.22579583003351</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3529773057041543</v>
+        <v>0.3724078902908805</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8068396777712975</v>
+        <v>0.8901503806504031</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4345446972416747</v>
+        <v>0.4799795920992457</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2193078421307126</v>
+        <v>0.2417396337820308</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-5.050584226069743</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>11.07711979071882</v>
+        <v>11.07711979071881</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-6.807122088819506</v>
@@ -1734,7 +1734,7 @@
         <v>-5.996235278439549</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>6.586294634445078</v>
+        <v>6.586294634445072</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-21.16940538506617</v>
+        <v>-22.00898568734216</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-26.69321171895984</v>
+        <v>-23.72442485581013</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.89347023222407</v>
+        <v>-13.86812246604537</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-24.64513072377229</v>
+        <v>-26.25153070613602</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-22.56728373201113</v>
+        <v>-22.88184686950016</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.653377280091014</v>
+        <v>-3.149060093831715</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-19.81831482950967</v>
+        <v>-18.22319933054155</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-18.26905945646244</v>
+        <v>-18.28032221404412</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.595467491828813</v>
+        <v>-3.292048998666525</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.95617520658912</v>
+        <v>16.41912023290676</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.20978534621026</v>
+        <v>10.30865608981363</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.61677651738031</v>
+        <v>16.89247680844613</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.333158955686496</v>
+        <v>6.438311853328297</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.11492734660405</v>
+        <v>14.80340321290559</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>23.80778279581656</v>
+        <v>24.23925574663563</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.56060644229935</v>
+        <v>5.319870224680489</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.379076862124734</v>
+        <v>6.573511751935317</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>17.32682988318103</v>
+        <v>17.3444413752698</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.127029859336633</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2786063761904709</v>
+        <v>0.2786063761904706</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1741768719077428</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1534283490723427</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1685264612448487</v>
+        <v>0.1685264612448485</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4437921005855531</v>
+        <v>-0.4759642839183558</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.543072700283234</v>
+        <v>-0.4998411603330675</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2738670267733919</v>
+        <v>-0.2851162768185346</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5447982824466049</v>
+        <v>-0.5374641080444887</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4829867529824375</v>
+        <v>-0.4788788754304199</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05931957241365314</v>
+        <v>-0.06548508805185893</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4395260746620528</v>
+        <v>-0.3989116388673765</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.412571148572732</v>
+        <v>-0.4068539060311075</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07929607725252791</v>
+        <v>-0.07417105312438384</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5678648870434694</v>
+        <v>0.5776680270767852</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3934953913812423</v>
+        <v>0.4046070852602676</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.693676023569494</v>
+        <v>0.6466860116404636</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2522910963423065</v>
+        <v>0.2167094324898703</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4051727552796933</v>
+        <v>0.4982605365496678</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7902467945220302</v>
+        <v>0.8174268167010403</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.174881001781146</v>
+        <v>0.1665478313412899</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2221593957471313</v>
+        <v>0.1915445459118541</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5548229081594527</v>
+        <v>0.5647117139592839</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>8.361809169379647</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>5.887514556757728</v>
+        <v>5.887514556757722</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.625499458968724</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.154236714502773</v>
+        <v>-3.499957159388912</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.750052311833467</v>
+        <v>-3.978364852414097</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.745408282721133</v>
+        <v>-9.038800859633865</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-11.77364312143006</v>
+        <v>-10.72831823313903</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.01411945361825</v>
+        <v>-3.608510447160452</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.243435416547306</v>
+        <v>-4.995345593983863</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.438980184408035</v>
+        <v>-3.458975583075681</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.9542396704264124</v>
+        <v>-1.184335237808762</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.987757832943376</v>
+        <v>-4.176084474640717</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.30712769102715</v>
+        <v>19.28607735791093</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.46084559408326</v>
+        <v>16.95442388490409</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.23608351998328</v>
+        <v>9.291081525027494</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.66137619891224</v>
+        <v>13.68733882103573</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>19.83445556323046</v>
+        <v>20.84580356134098</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.85966337693646</v>
+        <v>16.16219505826433</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>13.03417620919401</v>
+        <v>12.92281754823273</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>16.73397848877613</v>
+        <v>16.39058991272874</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.55913330947657</v>
+        <v>10.3498300557853</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.2499951387509211</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1760205224372408</v>
+        <v>0.1760205224372406</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1756840431935079</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1946138788009888</v>
+        <v>-0.1560005134089247</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1945088835775684</v>
+        <v>-0.1960062323761901</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4037079170807472</v>
+        <v>-0.3833611852477118</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2883847140511044</v>
+        <v>-0.2770859891276989</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1235504425068975</v>
+        <v>-0.08776233914599313</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1315512066126862</v>
+        <v>-0.1228144353616424</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1449993857452093</v>
+        <v>-0.1266139537412469</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01892088954588365</v>
+        <v>-0.049329044168198</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1527480895265547</v>
+        <v>-0.1493158565044689</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.564747727276407</v>
+        <v>1.427649009513418</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.349738897156072</v>
+        <v>1.282710303370603</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7411141693143039</v>
+        <v>0.7394927894717011</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4616929662581584</v>
+        <v>0.5094423132348511</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.748490028295138</v>
+        <v>0.7760088996928572</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5755838742317793</v>
+        <v>0.6010130391496223</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5977192657911784</v>
+        <v>0.5802656400880865</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7869338252691428</v>
+        <v>0.7284929669212912</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.45646109754041</v>
+        <v>0.4940398914769096</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-25.05189040272303</v>
+        <v>-25.76528063575106</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-23.44313277583897</v>
+        <v>-24.69177725513755</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-29.01383957749232</v>
+        <v>-27.03428128372653</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-12.04030289585129</v>
+        <v>-12.25434870698376</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-10.10599271430771</v>
+        <v>-9.612955867318851</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.525805470062862</v>
+        <v>-4.183420482715609</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-14.30066589861088</v>
+        <v>-14.56302233824282</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-13.36314383114349</v>
+        <v>-13.70071756160785</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-11.77880268379639</v>
+        <v>-12.11892492325211</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.964975818557355</v>
+        <v>-3.325469233099618</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-3.031564525963501</v>
+        <v>-3.247282983225765</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-9.294385414016991</v>
+        <v>-7.832772742876946</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.738716152950159</v>
+        <v>9.406166316500626</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>11.81470606409952</v>
+        <v>11.63815001351787</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>13.41604340710548</v>
+        <v>13.53343876836162</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.9210686061185658</v>
+        <v>0.6315071035794984</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.500781638779638</v>
+        <v>2.363787023191143</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.24292155886107</v>
+        <v>1.865517550991056</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6880243158044422</v>
+        <v>-0.6833964514002375</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6318038856556553</v>
+        <v>-0.6484716476340422</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7316111729987905</v>
+        <v>-0.7193762745589799</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3368779900047233</v>
+        <v>-0.3418272219605014</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2739142914607362</v>
+        <v>-0.2665144656449961</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1427522673611873</v>
+        <v>-0.1095642620323629</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4038154848022936</v>
+        <v>-0.4164929714180415</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3718231692487375</v>
+        <v>-0.3828273505188443</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3284986023527008</v>
+        <v>-0.3311705596918528</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1157669599108115</v>
+        <v>-0.08454091292833253</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.09797391130338955</v>
+        <v>-0.1185691764261406</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3332100655370994</v>
+        <v>-0.3142860887003027</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3228059744569772</v>
+        <v>0.3610946354730901</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4521106298489795</v>
+        <v>0.4211349798298799</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5428406158991728</v>
+        <v>0.5509573096527398</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04022252765131983</v>
+        <v>0.03257321192857481</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1008272057918061</v>
+        <v>0.085130840616415</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.08021882575561326</v>
+        <v>0.07300162854458379</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>1.285424261663115</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>6.890702822026013</v>
+        <v>6.890702822026007</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>2.569021275745348</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-4.888023284829138</v>
+        <v>-5.027985356159125</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-9.676586742120055</v>
+        <v>-10.62011133590047</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-6.25166426746427</v>
+        <v>-6.252492655866912</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.217007751906591</v>
+        <v>-1.056245574979677</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-4.092213274045007</v>
+        <v>-4.016342821685807</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.070150656407507</v>
+        <v>2.578274325281783</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.352649485531888</v>
+        <v>-1.703322167978702</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-5.106259467198152</v>
+        <v>-5.408151616032201</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.4068757151987517</v>
+        <v>-0.2053936399531184</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>6.255063095164624</v>
+        <v>5.950139821116662</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.21449035049998</v>
+        <v>-0.8616816328503983</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.095438420068934</v>
+        <v>2.97417087958081</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>9.459915675555683</v>
+        <v>9.611444746030154</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>6.195133608250584</v>
+        <v>6.80279042754355</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>11.04677448932191</v>
+        <v>11.29921498750597</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>6.578307935393419</v>
+        <v>6.014705630446861</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.069200631111949</v>
+        <v>1.858858179011572</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>6.085672043565418</v>
+        <v>6.346647059788729</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.03738135329930654</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2003881553763536</v>
+        <v>0.2003881553763535</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.08301532819676251</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1732204215856527</v>
+        <v>-0.1723589297763713</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3449499053071786</v>
+        <v>-0.3560137301558604</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2130468129234273</v>
+        <v>-0.2126988115614127</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.03329347970397989</v>
+        <v>-0.031344102560147</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1098584635036107</v>
+        <v>-0.1116664033575932</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.05454685550578538</v>
+        <v>0.06507959120462692</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.04044381845024991</v>
+        <v>-0.04955043480532188</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1579761656932077</v>
+        <v>-0.1663052864676453</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.01096589079023518</v>
+        <v>-0.006262693387313984</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2642670714947086</v>
+        <v>0.2613722335583891</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.009023532933303623</v>
+        <v>-0.03526579217083162</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1346564888408198</v>
+        <v>0.1305965261317991</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2987376594113831</v>
+        <v>0.3004051235898558</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1924784284946686</v>
+        <v>0.2161902755902146</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3544134034301409</v>
+        <v>0.3619134459296732</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.225797220116155</v>
+        <v>0.2082251341498101</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.07020636087657749</v>
+        <v>0.06457438043091997</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2134417053976927</v>
+        <v>0.2242434882485292</v>
       </c>
     </row>
     <row r="58">
